--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/10/seed5/result_data_RandomForest.xlsx
@@ -485,13 +485,13 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.384</v>
+        <v>-13.4257</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3447</v>
+        <v>16.1979</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.0592</v>
+        <v>4.9073</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.20139999999999</v>
+        <v>-13.4879</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.5996</v>
+        <v>-11.59379999999999</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.8655</v>
+        <v>15.68700000000001</v>
       </c>
     </row>
     <row r="31">
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.40959999999999</v>
+        <v>-13.2147</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.686899999999993</v>
+        <v>6.534699999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.50600000000002</v>
+        <v>-12.28360000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>8.817899999999996</v>
+        <v>9.049700000000007</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.0244</v>
+        <v>-13.2105</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.3453</v>
+        <v>5.467300000000002</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.8505</v>
+        <v>16.89829999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.3302</v>
+        <v>-13.85079999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.612600000000001</v>
+        <v>6.6233</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.545599999999999</v>
+        <v>4.6351</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.215199999999998</v>
+        <v>5.310899999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.27479999999998</v>
+        <v>-13.98919999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.3537</v>
+        <v>16.36980000000001</v>
       </c>
     </row>
     <row r="59">
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.794699999999999</v>
+        <v>5.832099999999994</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.323399999999998</v>
+        <v>5.074399999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.400500000000003</v>
+        <v>5.268900000000002</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.583</v>
+        <v>16.45479999999999</v>
       </c>
     </row>
     <row r="85">
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.33300000000002</v>
+        <v>17.24000000000002</v>
       </c>
     </row>
     <row r="90">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.756100000000003</v>
+        <v>5.543199999999998</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -1987,7 +1987,7 @@
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>18.00950000000002</v>
+        <v>17.90280000000002</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.03230000000002</v>
+        <v>18.01360000000003</v>
       </c>
     </row>
     <row r="93">
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>4.525499999999997</v>
+        <v>4.450299999999999</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.8226</v>
+        <v>-12.438</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,13 +2168,13 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-11.9946</v>
+        <v>-12.2739</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.84729999999999</v>
+        <v>16.76869999999999</v>
       </c>
     </row>
   </sheetData>
